--- a/заказы/филиалы и опт/2024/10,24/01,10,24 Ост КИ филиалы/дв 01,10,24 днрсч ост ки от Зверева.xlsx
+++ b/заказы/филиалы и опт/2024/10,24/01,10,24 Ост КИ филиалы/дв 01,10,24 днрсч ост ки от Зверева.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\01,10,24 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\10,24\01,10,24 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEF5009-202E-459E-A9C4-9BD00E4F2FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACC691C-A976-4C1B-98AD-58E0415AB123}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AC$105</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1045,10 +1045,10 @@
   <dimension ref="A1:AT495"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="T100" sqref="T100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4187,7 +4187,10 @@
       <c r="S32" s="5">
         <v>100</v>
       </c>
-      <c r="T32" s="1"/>
+      <c r="T32" s="18">
+        <f>W32/(X32/100)-100</f>
+        <v>58.620689655172413</v>
+      </c>
       <c r="U32" s="1">
         <f t="shared" si="2"/>
         <v>19.672131147540984</v>
@@ -5240,7 +5243,10 @@
       <c r="S42" s="22">
         <v>300</v>
       </c>
-      <c r="T42" s="18"/>
+      <c r="T42" s="18">
+        <f>O42/(W42/100)-100</f>
+        <v>143.10344827586209</v>
+      </c>
       <c r="U42" s="1">
         <f t="shared" si="2"/>
         <v>9.414893617021276</v>
@@ -5446,7 +5452,10 @@
       </c>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
-      <c r="T44" s="1"/>
+      <c r="T44" s="18">
+        <f>W44/(X44/100)-100</f>
+        <v>86.567164179104481</v>
+      </c>
       <c r="U44" s="1">
         <f t="shared" si="2"/>
         <v>24.577118644067795</v>
@@ -6276,7 +6285,10 @@
       <c r="S52" s="5">
         <v>50</v>
       </c>
-      <c r="T52" s="1"/>
+      <c r="T52" s="18">
+        <f>W52/(X52/100)-100</f>
+        <v>31.25</v>
+      </c>
       <c r="U52" s="1">
         <f t="shared" si="2"/>
         <v>18.627450980392158</v>
@@ -6798,7 +6810,10 @@
       </c>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
-      <c r="T57" s="1"/>
+      <c r="T57" s="18">
+        <f>W57/(X57/100)-100</f>
+        <v>20.3125</v>
+      </c>
       <c r="U57" s="1">
         <f t="shared" si="2"/>
         <v>13.026315789473685</v>
@@ -8654,7 +8669,10 @@
       </c>
       <c r="R75" s="5"/>
       <c r="S75" s="5"/>
-      <c r="T75" s="1"/>
+      <c r="T75" s="18">
+        <f>O75/(W75/100)-100</f>
+        <v>59.499014916971589</v>
+      </c>
       <c r="U75" s="1">
         <f t="shared" si="30"/>
         <v>13.060996411975763</v>
@@ -9791,7 +9809,10 @@
       <c r="S86" s="5">
         <v>140</v>
       </c>
-      <c r="T86" s="1"/>
+      <c r="T86" s="18">
+        <f>O86/(W86/100)-100</f>
+        <v>58.536585365853682</v>
+      </c>
       <c r="U86" s="1">
         <f t="shared" si="30"/>
         <v>14.076923076923077</v>
@@ -10097,7 +10118,10 @@
       </c>
       <c r="R89" s="5"/>
       <c r="S89" s="5"/>
-      <c r="T89" s="1"/>
+      <c r="T89" s="18">
+        <f>O89/(W89/100)-100</f>
+        <v>214.28571428571433</v>
+      </c>
       <c r="U89" s="1">
         <f t="shared" si="30"/>
         <v>12.045454545454545</v>
@@ -10519,7 +10543,10 @@
         <v>10</v>
       </c>
       <c r="S93" s="5"/>
-      <c r="T93" s="1"/>
+      <c r="T93" s="18">
+        <f>O93/(W93/100)-100</f>
+        <v>266.03253377446924</v>
+      </c>
       <c r="U93" s="1">
         <f t="shared" si="30"/>
         <v>14.861968966556192</v>
@@ -11233,7 +11260,10 @@
       <c r="S100" s="5">
         <v>420</v>
       </c>
-      <c r="T100" s="1"/>
+      <c r="T100" s="18">
+        <f>O100/(W100/100)-100</f>
+        <v>44.000000000000028</v>
+      </c>
       <c r="U100" s="1">
         <f t="shared" si="30"/>
         <v>13.009259259259258</v>
